--- a/biology/Botanique/Bolbitius_vitellinus/Bolbitius_vitellinus.xlsx
+++ b/biology/Botanique/Bolbitius_vitellinus/Bolbitius_vitellinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolbitius titubans, Bolbitius vitellinus
 La Bolbitie jaune-d'œuf (Bolbitius titubans, syn. Bolbitius vitellinus) est une espèce de champignons basidiomycètes de la famille des bolbitiacées.
@@ -512,12 +524,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Bolbitius titubans (Bull.) Fr.[1].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus titubans Bull.[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolbitie jaune-d'oeuf[2].
-Bolbitius titubans a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Bolbitius titubans (Bull.) Fr..
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus titubans Bull..
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolbitie jaune-d'oeuf.
+Bolbitius titubans a pour synonymes :
 Agaricus boltonii Pers.
 Agaricus equestris Bolton
 Agaricus flavidus Bolton
@@ -565,7 +579,9 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il possède un  petit chapeau, peu charnu, ovoïde ou campanulé conique, de couleur jaune citron à jaune doré au début. Ensuite il s’étale  (2 à 5 cm de diamètre), s’éclaircit à l’exception de son centre qui garde sa couleur vive, et se fendille profondément  à la marge. Enfin, il se dessèche et prend une couleur ocre rouille. Les lames minces et serrées de couleur blanchâtre deviennent rouille vif en vieillissant. Le pied creux (4-11 cm x 1-4mm) blanc à sommet jaune clair, souvent entièrement floconneux est très fragile. La chair mince, ne dégage pas d’odeur particulière. Le sporophore pousse de l'été à la fin de l'automne sur les sols gras et fumés.
 </t>
@@ -596,7 +612,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucun intérêt, à rejeter.
 </t>
